--- a/team_specific_matrix/Gardner-Webb_B.xlsx
+++ b/team_specific_matrix/Gardner-Webb_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1950354609929078</v>
+        <v>0.1978609625668449</v>
       </c>
       <c r="C2">
-        <v>0.5425531914893617</v>
+        <v>0.5347593582887701</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01063829787234043</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.148936170212766</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1028368794326241</v>
+        <v>0.1016042780748663</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01796407185628742</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C3">
-        <v>0.07784431137724551</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04191616766467066</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7125748502994012</v>
+        <v>0.7230046948356808</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1497005988023952</v>
+        <v>0.1643192488262911</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.375</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06521739130434782</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02173913043478261</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03804347826086957</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2554347826086957</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01630434782608696</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2065217391304348</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="R6">
-        <v>0.03804347826086957</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="S6">
-        <v>0.358695652173913</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1730769230769231</v>
+        <v>0.17</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01282051282051282</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04487179487179487</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108974358974359</v>
+        <v>0.12</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03205128205128205</v>
+        <v>0.025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1987179487179487</v>
+        <v>0.205</v>
       </c>
       <c r="R7">
-        <v>0.0641025641025641</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S7">
-        <v>0.3653846153846154</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1122994652406417</v>
+        <v>0.11727078891258</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0213903743315508</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="E8">
-        <v>0.00267379679144385</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="F8">
-        <v>0.08823529411764706</v>
+        <v>0.08102345415778252</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1096256684491979</v>
+        <v>0.1002132196162047</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0213903743315508</v>
+        <v>0.02132196162046908</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1443850267379679</v>
+        <v>0.1663113006396588</v>
       </c>
       <c r="R8">
-        <v>0.06684491978609626</v>
+        <v>0.06183368869936034</v>
       </c>
       <c r="S8">
-        <v>0.4331550802139038</v>
+        <v>0.4243070362473347</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1019108280254777</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006369426751592357</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03821656050955414</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08917197452229299</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03821656050955414</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2038216560509554</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="R9">
-        <v>0.1210191082802548</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="S9">
-        <v>0.4012738853503185</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1202346041055719</v>
+        <v>0.1204268292682927</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02443792766373411</v>
+        <v>0.02362804878048781</v>
       </c>
       <c r="E10">
-        <v>0.0009775171065493646</v>
+        <v>0.0007621951219512195</v>
       </c>
       <c r="F10">
-        <v>0.07233626588465299</v>
+        <v>0.06783536585365854</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1026392961876833</v>
+        <v>0.1074695121951219</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0166177908113392</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1788856304985337</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="R10">
-        <v>0.09188660801564028</v>
+        <v>0.08460365853658537</v>
       </c>
       <c r="S10">
-        <v>0.3919843597262952</v>
+        <v>0.3879573170731707</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.160958904109589</v>
+        <v>0.1548913043478261</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1164383561643836</v>
+        <v>0.1277173913043478</v>
       </c>
       <c r="K11">
-        <v>0.226027397260274</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L11">
-        <v>0.4863013698630137</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01027397260273973</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.006944444444444444</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="G12">
-        <v>0.6319444444444444</v>
+        <v>0.6312849162011173</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2569444444444444</v>
+        <v>0.2402234636871508</v>
       </c>
       <c r="K12">
-        <v>0.01388888888888889</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="L12">
-        <v>0.006944444444444444</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08333333333333333</v>
+        <v>0.09497206703910614</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5945945945945946</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1081081081081081</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01807228915662651</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1325301204819277</v>
+        <v>0.1352657004830918</v>
       </c>
       <c r="I15">
-        <v>0.1024096385542169</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="J15">
-        <v>0.3192771084337349</v>
+        <v>0.3429951690821256</v>
       </c>
       <c r="K15">
-        <v>0.04819277108433735</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01204819277108434</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05421686746987952</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3132530120481928</v>
+        <v>0.2946859903381642</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1555555555555556</v>
+        <v>0.173728813559322</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="J16">
-        <v>0.4277777777777778</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="K16">
-        <v>0.1166666666666667</v>
+        <v>0.1144067796610169</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01666666666666667</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03888888888888889</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.15</v>
+        <v>0.1610169491525424</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03188405797101449</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1855072463768116</v>
+        <v>0.1786492374727669</v>
       </c>
       <c r="I17">
-        <v>0.06666666666666667</v>
+        <v>0.06753812636165578</v>
       </c>
       <c r="J17">
-        <v>0.4028985507246377</v>
+        <v>0.4008714596949891</v>
       </c>
       <c r="K17">
-        <v>0.1304347826086956</v>
+        <v>0.1220043572984749</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008695652173913044</v>
+        <v>0.01525054466230937</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05217391304347826</v>
+        <v>0.06318082788671024</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1217391304347826</v>
+        <v>0.1263616557734205</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01360544217687075</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1700680272108843</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.08843537414965986</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="J18">
-        <v>0.4217687074829932</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="K18">
-        <v>0.108843537414966</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0272108843537415</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07482993197278912</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09523809523809523</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01313320825515948</v>
+        <v>0.01689933872152829</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2279549718574109</v>
+        <v>0.2204261572373255</v>
       </c>
       <c r="I19">
-        <v>0.08630393996247655</v>
+        <v>0.08229243203526819</v>
       </c>
       <c r="J19">
-        <v>0.3649155722326454</v>
+        <v>0.3666421748714181</v>
       </c>
       <c r="K19">
-        <v>0.1228893058161351</v>
+        <v>0.1204996326230713</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02439024390243903</v>
+        <v>0.02718589272593681</v>
       </c>
       <c r="N19">
-        <v>0.0009380863039399625</v>
+        <v>0.002939015429831006</v>
       </c>
       <c r="O19">
-        <v>0.05722326454033771</v>
+        <v>0.05290227773695812</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1022514071294559</v>
+        <v>0.1102130786186628</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Gardner-Webb_B.xlsx
+++ b/team_specific_matrix/Gardner-Webb_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1978609625668449</v>
+        <v>0.1979949874686717</v>
       </c>
       <c r="C2">
-        <v>0.5347593582887701</v>
+        <v>0.5338345864661654</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0106951871657754</v>
+        <v>0.012531328320802</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1550802139037433</v>
+        <v>0.1528822055137845</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1016042780748663</v>
+        <v>0.1027568922305764</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01408450704225352</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="C3">
-        <v>0.06572769953051644</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03286384976525822</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7230046948356808</v>
+        <v>0.7256637168141593</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1643192488262911</v>
+        <v>0.163716814159292</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.32</v>
+        <v>0.3207547169811321</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0735930735930736</v>
+        <v>0.06439393939393939</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01731601731601732</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04761904761904762</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2597402597402597</v>
+        <v>0.2689393939393939</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01298701298701299</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2077922077922078</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="R6">
         <v>0.0303030303030303</v>
       </c>
       <c r="S6">
-        <v>0.3506493506493507</v>
+        <v>0.3484848484848485</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.17</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.12</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.205</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="R7">
-        <v>0.07000000000000001</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="S7">
-        <v>0.36</v>
+        <v>0.3534883720930233</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.11727078891258</v>
+        <v>0.1126482213438735</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0255863539445629</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="E8">
-        <v>0.002132196162046908</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="F8">
-        <v>0.08102345415778252</v>
+        <v>0.07509881422924901</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1002132196162047</v>
+        <v>0.09683794466403162</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02132196162046908</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1663113006396588</v>
+        <v>0.1660079051383399</v>
       </c>
       <c r="R8">
-        <v>0.06183368869936034</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="S8">
-        <v>0.4243070362473347</v>
+        <v>0.4328063241106719</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1224489795918367</v>
+        <v>0.1194690265486726</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01020408163265306</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06122448979591837</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08673469387755102</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03061224489795918</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1836734693877551</v>
+        <v>0.2035398230088496</v>
       </c>
       <c r="R9">
-        <v>0.1122448979591837</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="S9">
-        <v>0.3928571428571428</v>
+        <v>0.3716814159292036</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1204268292682927</v>
+        <v>0.1182572614107884</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02362804878048781</v>
+        <v>0.02351313969571231</v>
       </c>
       <c r="E10">
-        <v>0.0007621951219512195</v>
+        <v>0.0006915629322268327</v>
       </c>
       <c r="F10">
-        <v>0.06783536585365854</v>
+        <v>0.0698478561549101</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1074695121951219</v>
+        <v>0.1078838174273859</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01829268292682927</v>
+        <v>0.01936376210235131</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1890243902439024</v>
+        <v>0.1922544951590595</v>
       </c>
       <c r="R10">
-        <v>0.08460365853658537</v>
+        <v>0.08437067773167359</v>
       </c>
       <c r="S10">
-        <v>0.3879573170731707</v>
+        <v>0.3838174273858921</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1548913043478261</v>
+        <v>0.15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1277173913043478</v>
+        <v>0.1375</v>
       </c>
       <c r="K11">
-        <v>0.2282608695652174</v>
+        <v>0.2325</v>
       </c>
       <c r="L11">
-        <v>0.4782608695652174</v>
+        <v>0.47</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0108695652173913</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00558659217877095</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6312849162011173</v>
+        <v>0.6302083333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2402234636871508</v>
+        <v>0.2447916666666667</v>
       </c>
       <c r="K12">
-        <v>0.0223463687150838</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L12">
-        <v>0.00558659217877095</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.09497206703910614</v>
+        <v>0.08854166666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6037735849056604</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3207547169811321</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07547169811320754</v>
+        <v>0.06779661016949153</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01932367149758454</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1352657004830918</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="I15">
-        <v>0.0821256038647343</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="J15">
-        <v>0.3429951690821256</v>
+        <v>0.3348214285714285</v>
       </c>
       <c r="K15">
-        <v>0.05797101449275362</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00966183574879227</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05797101449275362</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2946859903381642</v>
+        <v>0.2991071428571428</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0211864406779661</v>
+        <v>0.02</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.173728813559322</v>
+        <v>0.168</v>
       </c>
       <c r="I16">
-        <v>0.07203389830508475</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J16">
-        <v>0.4067796610169492</v>
+        <v>0.42</v>
       </c>
       <c r="K16">
-        <v>0.1144067796610169</v>
+        <v>0.112</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01694915254237288</v>
+        <v>0.016</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03389830508474576</v>
+        <v>0.032</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1610169491525424</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0261437908496732</v>
+        <v>0.02514506769825919</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1786492374727669</v>
+        <v>0.1760154738878143</v>
       </c>
       <c r="I17">
-        <v>0.06753812636165578</v>
+        <v>0.0735009671179884</v>
       </c>
       <c r="J17">
-        <v>0.4008714596949891</v>
+        <v>0.3945841392649903</v>
       </c>
       <c r="K17">
-        <v>0.1220043572984749</v>
+        <v>0.1160541586073501</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01525054466230937</v>
+        <v>0.01547388781431335</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06318082788671024</v>
+        <v>0.06189555125725339</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1263616557734205</v>
+        <v>0.137330754352031</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01149425287356322</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="I18">
-        <v>0.09770114942528736</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="J18">
-        <v>0.396551724137931</v>
+        <v>0.4072164948453608</v>
       </c>
       <c r="K18">
-        <v>0.09770114942528736</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02298850574712644</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06896551724137931</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1379310344827586</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01689933872152829</v>
+        <v>0.01806020066889632</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2204261572373255</v>
+        <v>0.2147157190635451</v>
       </c>
       <c r="I19">
-        <v>0.08229243203526819</v>
+        <v>0.0882943143812709</v>
       </c>
       <c r="J19">
-        <v>0.3666421748714181</v>
+        <v>0.3625418060200669</v>
       </c>
       <c r="K19">
-        <v>0.1204996326230713</v>
+        <v>0.1204013377926421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02718589272593681</v>
+        <v>0.02809364548494983</v>
       </c>
       <c r="N19">
-        <v>0.002939015429831006</v>
+        <v>0.002675585284280936</v>
       </c>
       <c r="O19">
-        <v>0.05290227773695812</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1102130786186628</v>
+        <v>0.1130434782608696</v>
       </c>
     </row>
   </sheetData>
